--- a/OpsManage/static/resources/otherDevice.xlsx
+++ b/OpsManage/static/resources/otherDevice.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">设备类型</t>
   </si>
@@ -85,119 +85,16 @@
   </si>
   <si>
     <t xml:space="preserve">备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安全设备</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网闸设备</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安全设备导入测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfgdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">业务内网</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中线局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未使用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S5500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfsdfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.21.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中线局数据机房</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南水北调建设期合同</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中科软</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-12-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-12-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfdgsdfgsdgsdfgdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网络设备</t>
-  </si>
-  <si>
-    <t xml:space="preserve">路由器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网络设备导入测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdfgsdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">控制专网</t>
-  </si>
-  <si>
-    <t xml:space="preserve">故障</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hdfghw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.54.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">存储设备</t>
-  </si>
-  <si>
-    <t xml:space="preserve">磁带库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">存储设备导入测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdfgfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">业务外网</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其他</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfhwhrt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.169.56.16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -220,8 +117,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +135,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -269,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,7 +187,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -286,11 +195,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,7 +253,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -371,43 +276,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="25.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="22" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.87"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -425,10 +335,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -437,13 +347,13 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
@@ -452,233 +362,151 @@
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2" type="list">
-      <formula1>"使用中,未使用,故障,其它"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2" type="list">
-      <formula1>"控制专网,业务内网,业务外网"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
-      <formula1>"网络设备,安全设备,存储设备,其它"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2:B4" type="list">
-      <formula1>"路由器,交换机,工业交换机,无线控制器,无线AP,磁盘阵列,网络存储器,光纤交换机,磁带库,磁带机,防火墙,入侵检测设备,入侵防御设备,综合安全网关,数据库审计系统,运维审计系统,防病毒网关,WAF防火墙,安全配置检查,网络准入系统,网闸设备,VPN设备"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/OpsManage/static/resources/otherDevice.xlsx
+++ b/OpsManage/static/resources/otherDevice.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="110">
   <si>
     <t xml:space="preserve">设备类型</t>
   </si>
@@ -85,14 +85,282 @@
   </si>
   <si>
     <t xml:space="preserve">备注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安全设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漏洞扫描</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-漏扫（绿盟）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">业务内网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中线局</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSAS NX3-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-50-L-0078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhangyuming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中线局网络机房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安全配置检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-配置核查（绿盟）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVS NX3-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-50-J-0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防火墙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-迪普FWB类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FW1000-GM-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02050389P17B000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据库审计系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-数据库审计（绿盟）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAS NX3-2000C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-50-J-0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">综合安全网关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-迪普8000A5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPX8000-A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02050026P179002907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-迪普8000A5-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02050026P179002939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入侵防御设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-IDS（绿盟）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPS2000-GS-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-50-J-0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUG网络安全审计系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-UAG（迪普）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAG3000-GA-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02050497D17C000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-防火墙A类-内外网边界-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FW1000-GA-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02050217P17C000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.20.15.249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-防火墙A类-内外网边界-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02050217P17C000032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-防火墙A类-分局边界-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02050217P177001786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-防火墙A类-分局边界-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02050217P17C000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-入侵防御系统-分局边界-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02050297D17C000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内网-入侵防御系统-分局边界-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02050297D17C000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网闸设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网闸1（天融信）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopRules9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1801655658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255.248.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网闸2（天融信）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-BJ-Sec-0045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1712615303</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -178,7 +446,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,15 +455,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,10 +554,10 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -310,56 +586,56 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.87"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -368,13 +644,856 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
